--- a/data/trans_dic/P48_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P48_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios</t>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +686,72 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,42%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>40,88%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>28,5%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>29,46%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>30,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>28,82%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>28,6%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>36,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>27,14%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>28,92%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>30,4%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30,69%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>38,73%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,5; 32,82</t>
+          <t>19,88; 33,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,85; 36,29</t>
+          <t>21,73; 37,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,65; 43,4</t>
+          <t>25,95; 44,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,61; 37,28</t>
+          <t>21,65; 38,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,76; 37,25</t>
+          <t>30,51; 52,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,4; 38,22</t>
+          <t>21,89; 37,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,21; 34,35</t>
+          <t>22,57; 38,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,47; 36,26</t>
+          <t>20,89; 33,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,51; 32,69</t>
+          <t>22,39; 36,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 34,9</t>
+          <t>28,39; 45,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,07; 36,61</t>
+          <t>22,65; 32,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,16; 34,68</t>
+          <t>24,44; 35,78</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25,41; 36,75</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>23,72; 34,64</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>32,14; 45,88</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>26,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>29,24%</t>
+          <t>30,21%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>35,24%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>29,93%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>29,6%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,9%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>34,82%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>35,45%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>44,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,91%</t>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>32,23%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>33,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>39,55%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>19,53; 34,22</t>
+          <t>19,31; 34,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,38; 35,7</t>
+          <t>17,32; 36,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,76; 36,53</t>
+          <t>22,92; 37,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,24; 38,63</t>
+          <t>25,04; 39,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,84; 36,54</t>
+          <t>24,65; 45,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,39; 37,93</t>
+          <t>24,19; 36,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,09; 40,77</t>
+          <t>22,18; 37,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,2; 41,18</t>
+          <t>28,08; 40,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,76; 33,55</t>
+          <t>29,16; 42,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,71; 33,78</t>
+          <t>36,95; 52,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 36,67</t>
+          <t>23,11; 33,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,77; 37,77</t>
+          <t>22,28; 34,7</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>27,68; 37,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>28,34; 38,42</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>31,88; 46,24</t>
         </is>
       </c>
     </row>
@@ -941,57 +1026,72 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>48,07%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>45,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>50,99%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>42,99%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>38,74%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>41,86%</t>
+          <t>39,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,08%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>43,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>52,59%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>44,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>44,54%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>41,68%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>44,58%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>51,82%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>39,43; 53,31</t>
+          <t>39,77; 53,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,71; 58,43</t>
+          <t>40,81; 60,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,05; 47,06</t>
+          <t>35,05; 47,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>37,92; 51,73</t>
+          <t>38,49; 52,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,7; 48,33</t>
+          <t>42,86; 58,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,55; 44,9</t>
+          <t>38,16; 48,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,75; 46,94</t>
+          <t>33,06; 46,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,8; 49,49</t>
+          <t>36,65; 46,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>40,49; 49,11</t>
+          <t>39,12; 49,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,86; 49,0</t>
+          <t>46,74; 58,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,08; 45,8</t>
+          <t>40,98; 49,03</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>40,06; 48,62</t>
+          <t>38,72; 49,95</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>37,98; 45,9</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>40,13; 48,53</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>46,99; 56,72</t>
         </is>
       </c>
     </row>
@@ -1081,57 +1196,72 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,02%</t>
+          <t>40,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>42,95%</t>
+          <t>43,43%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>40,93%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>36,58%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>38,91%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>33,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>32,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39,82%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>36,39%</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>37,77%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>36,46%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,43%</t>
+          <t>38,29%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>40,38%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 42,35</t>
+          <t>30,71; 42,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,61; 44,06</t>
+          <t>29,57; 45,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,64; 46,59</t>
+          <t>34,23; 46,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,32; 50,18</t>
+          <t>37,24; 49,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,83; 42,03</t>
+          <t>34,32; 47,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,04; 45,57</t>
+          <t>31,64; 42,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,32; 38,41</t>
+          <t>33,78; 45,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,47; 37,37</t>
+          <t>28,31; 38,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,63; 40,51</t>
+          <t>27,24; 36,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>33,46; 42,83</t>
+          <t>34,06; 45,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,77; 40,22</t>
+          <t>32,83; 40,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,7; 41,56</t>
+          <t>34,01; 43,25</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>32,63; 40,61</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>34,01; 42,21</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>36,42; 44,49</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1366,72 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>28,01%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>28,21%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>26,91%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>28,19%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>23,17%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>25,68%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,04%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>27,73%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>28,03%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>26,88%</t>
+          <t>27,33%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>28,12%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>27,08%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,61; 28,16</t>
+          <t>17,93; 28,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,13; 36,55</t>
+          <t>21,16; 35,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,32; 35,23</t>
+          <t>22,47; 35,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,05; 32,61</t>
+          <t>21,74; 33,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,21; 29,02</t>
+          <t>21,97; 35,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,37; 32,6</t>
+          <t>18,32; 28,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,0; 34,57</t>
+          <t>20,61; 33,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,75; 33,51</t>
+          <t>22,05; 33,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,03; 26,81</t>
+          <t>22,05; 33,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,1; 32,01</t>
+          <t>21,83; 34,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>24,13; 33,06</t>
+          <t>19,43; 26,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,18; 31,29</t>
+          <t>22,47; 31,97</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>23,94; 32,19</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>23,41; 31,45</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>23,72; 32,78</t>
         </is>
       </c>
     </row>
@@ -1361,57 +1536,72 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>20,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,67%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>24,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>12,72%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>14,11%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>15,07%</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>16,21%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>17,22%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>15,93%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,45; 23,55</t>
+          <t>13,41; 23,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,35; 31,68</t>
+          <t>13,26; 31,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,65; 34,24</t>
+          <t>15,88; 31,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,54; 23,72</t>
+          <t>12,83; 23,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,39; 17,0</t>
+          <t>17,93; 32,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>9,16; 19,62</t>
+          <t>8,99; 16,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,51; 15,45</t>
+          <t>10,17; 21,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,06; 14,85</t>
+          <t>7,8; 15,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,19; 18,46</t>
+          <t>7,98; 15,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,05; 21,39</t>
+          <t>8,67; 19,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>12,55; 21,94</t>
+          <t>12,4; 18,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,62; 17,15</t>
+          <t>13,06; 22,7</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>12,58; 20,67</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>11,32; 17,73</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>13,86; 23,3</t>
         </is>
       </c>
     </row>
@@ -1501,57 +1706,72 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>37,19%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>29,16%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>29,65%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>29,31%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>29,83%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>35,59%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>29,67%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>29,67%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>30,56%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>31,12%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>31,3%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>36,37%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>27,63; 32,85</t>
+          <t>27,59; 32,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,23; 35,33</t>
+          <t>29,05; 36,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,64; 35,86</t>
+          <t>30,71; 36,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,15; 36,11</t>
+          <t>30,75; 36,69</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,11; 31,42</t>
+          <t>33,86; 40,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,93; 32,44</t>
+          <t>26,83; 31,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,92; 31,44</t>
+          <t>27,46; 33,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,26; 32,06</t>
+          <t>26,87; 31,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27,91; 31,47</t>
+          <t>27,55; 32,17</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,37; 32,73</t>
+          <t>32,71; 38,42</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,25; 32,96</t>
+          <t>28,01; 31,57</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>29,47; 33,15</t>
+          <t>28,99; 33,46</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>29,48; 33,06</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>29,91; 33,65</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 38,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>124108</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>134895</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>159209</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>138847</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>167382</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>124068</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>129674</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>130172</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>133287</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>164413</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>248176</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>264569</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>289381</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>272134</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>331795</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95232; 159524</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>99576; 172997</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>120953; 208137</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>100319; 179591</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>124928; 216639</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>95304; 163981</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>97508; 166026</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>99628; 161766</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>104343; 170806</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>126997; 204239</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>207120; 300035</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>217608; 318563</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>239596; 346507</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>220397; 321927</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>275390; 393066</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>144719</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>108573</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>166042</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>184691</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>201365</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>152454</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>121681</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>166482</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>178491</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>217453</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>297173</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>230254</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>332524</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>363182</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>418819</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>106041; 188112</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>71249; 151586</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>126000; 203611</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>144844; 230350</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>140885; 257686</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>123212; 188436</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>90282; 154571</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>135338; 197043</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>146835; 213016</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>180125; 256600</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>244669; 350707</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>182364; 284014</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>285539; 384974</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>306538; 415673</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>337600; 489681</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>311033</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>227074</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>280487</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>304724</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>330430</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>296797</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>215066</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>294635</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>310028</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>365126</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>607830</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>442140</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>575122</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>614752</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>695556</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>266903; 357994</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>183146; 270485</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>236696; 322608</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>259439; 353119</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>277756; 381385</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>263393; 335659</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>179776; 251145</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>258220; 330744</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>275768; 347811</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>324532; 403041</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>557887; 667573</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>384304; 495769</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>524078; 633414</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>553321; 669131</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>630705; 761420</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>231066</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153525</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>257999</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>272773</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>264234</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>255574</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>221125</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>222417</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>211477</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>257312</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>486640</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>374649</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>480415</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>484250</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>521546</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>196039; 272522</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>123978; 188814</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>219785; 296365</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>233889; 313430</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>221569; 308765</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>221080; 293619</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>188889; 255488</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>189898; 255264</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>177682; 237753</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>220084; 291574</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>439043; 538897</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>332784; 423223</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>428400; 533150</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>435452; 540395</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>470418; 574643</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>114206</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>95181</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>139556</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>130948</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>138958</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>114074</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>106266</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>138351</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>138283</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>140280</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>228280</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>201447</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>277907</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>269231</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>279238</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>91158; 144215</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>71918; 122128</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>111161; 176528</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>105805; 161902</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>108264; 172763</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>90164; 140019</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>81859; 135018</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>108856; 167140</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>111919; 172575</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>110434; 176663</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>194366; 269558</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>165632; 235625</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>236655; 318142</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>232728; 312650</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>236933; 327360</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>99383</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>74387</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>116116</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>95122</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>133324</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>92015</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83347</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>75946</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>75519</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>94683</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>191398</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>157734</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>192062</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>170641</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>228007</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>73321; 129865</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>48634; 116525</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>83573; 166598</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>67678; 125684</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>99595; 178222</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>65010; 120385</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>55846; 117848</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>53005; 104614</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>53978; 106234</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>60802; 139318</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>157556; 232568</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>119623; 207910</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>151716; 249296</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>136264; 213495</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>174217; 292788</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>535.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>896.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>620.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>958.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>1014.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>906.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1024515</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>793635</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1119409</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1127105</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1235693</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1034983</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>877158</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1028002</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1047084</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1239267</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>2059497</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1670793</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2147411</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>2174189</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>2474960</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>935938; 1110003</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>710137; 891506</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1030050; 1221729</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1032524; 1231955</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1125007; 1340377</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>952318; 1116980</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>793234; 964497</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>942385; 1106403</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>967122; 1129252</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1139036; 1337818</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1944816; 2191426</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1545782; 1784270</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>2023161; 2268784</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>2054387; 2311469</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2339459; 2634272</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>